--- a/com.sevenrmartsupermarket/src/main/resources/ExcelFiles/Logindata.xlsx
+++ b/com.sevenrmartsupermarket/src/main/resources/ExcelFiles/Logindata.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAKSHMI KS\eclipse-workspace\com.sevenrmartsupermarket\src\main\resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAKSHMI KS\git\com.sevenrmartsupermarket\com.sevenrmartsupermarket\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF00FF06-C098-4FA8-A126-86052B5E23D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC865CEB-C9D5-4C40-8FEA-188136E9B554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credentials" sheetId="1" r:id="rId1"/>
     <sheet name="new" sheetId="2" r:id="rId2"/>
+    <sheet name="sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Username</t>
   </si>
@@ -89,6 +90,15 @@
   </si>
   <si>
     <t xml:space="preserve">Annumaria </t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>A collection of samsung phones</t>
+  </si>
+  <si>
+    <t>D:\\Selenium Assignments\\Samsung_Logo.svg.png</t>
   </si>
 </sst>
 </file>
@@ -419,7 +429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -559,4 +569,33 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97515B7F-D947-4E01-AD8D-03E29D810EF6}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.sevenrmartsupermarket/src/main/resources/ExcelFiles/Logindata.xlsx
+++ b/com.sevenrmartsupermarket/src/main/resources/ExcelFiles/Logindata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAKSHMI KS\git\com.sevenrmartsupermarket\com.sevenrmartsupermarket\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC865CEB-C9D5-4C40-8FEA-188136E9B554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC44F6BB-331D-4834-8157-C671345477F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Username</t>
   </si>
@@ -74,9 +74,6 @@
     <t>db</t>
   </si>
   <si>
-    <t>Bijith Milo</t>
-  </si>
-  <si>
     <t>milo@345</t>
   </si>
   <si>
@@ -99,6 +96,21 @@
   </si>
   <si>
     <t>D:\\Selenium Assignments\\Samsung_Logo.svg.png</t>
+  </si>
+  <si>
+    <t>Bijith Benny</t>
+  </si>
+  <si>
+    <t>Facewash</t>
+  </si>
+  <si>
+    <t>Facewash Brands</t>
+  </si>
+  <si>
+    <t>Everyouth</t>
+  </si>
+  <si>
+    <t>D:\Selenium Assignments\logo.png</t>
   </si>
 </sst>
 </file>
@@ -430,7 +442,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -500,10 +512,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -511,10 +523,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -552,18 +564,18 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -573,26 +585,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97515B7F-D947-4E01-AD8D-03E29D810EF6}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
